--- a/相模和樹/スケジュール表_相模.xlsx
+++ b/相模和樹/スケジュール表_相模.xlsx
@@ -9885,8 +9885,8 @@
   <dimension ref="A1:EF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL5" sqref="AL5"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10887,7 +10887,10 @@
       <c r="K4" s="7">
         <v>8</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <f>SUM(M4:EF4)</f>
+        <v>3</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -11045,7 +11048,10 @@
       <c r="K5" s="7">
         <v>40</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L7" si="0">SUM(M5:EF5)</f>
+        <v>4</v>
+      </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -11073,9 +11079,15 @@
       <c r="AK5" s="12">
         <v>1</v>
       </c>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
+      <c r="AL5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="12">
+        <v>1</v>
+      </c>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
@@ -11199,7 +11211,10 @@
       <c r="K6" s="7">
         <v>13</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -11226,8 +11241,12 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
+      <c r="AM6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>2</v>
+      </c>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
@@ -11341,7 +11360,10 @@
       <c r="K7" s="7">
         <v>10</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>

--- a/相模和樹/スケジュール表_相模.xlsx
+++ b/相模和樹/スケジュール表_相模.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4183305\Desktop\1・2年共同開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4183305\Documents\GitHub\StandZodiac\相模和樹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="71">
   <si>
     <t>10月</t>
     <rPh sb="0" eb="1">
@@ -498,6 +498,26 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>チュウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表情差分</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各キャラクターの表情差分作成。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヒョウジョウサブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9885,8 +9905,8 @@
   <dimension ref="A1:EF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN6" sqref="AN6"/>
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10889,7 +10909,7 @@
       </c>
       <c r="L4" s="7">
         <f>SUM(M4:EF4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -10928,8 +10948,12 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="12">
+        <v>1</v>
+      </c>
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
       <c r="AX4" s="12"/>
@@ -11050,7 +11074,7 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" ref="L5:L7" si="0">SUM(M5:EF5)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -11086,16 +11110,22 @@
         <v>1</v>
       </c>
       <c r="AN5" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
+      <c r="AR5" s="12">
+        <v>3</v>
+      </c>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
+      <c r="AU5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>1</v>
+      </c>
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
       <c r="AY5" s="12"/>
@@ -11205,7 +11235,9 @@
       <c r="G6" s="10">
         <v>43546</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="10">
+        <v>43523</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="7">
@@ -11213,7 +11245,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -11254,7 +11286,9 @@
       <c r="AS6" s="12"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
+      <c r="AV6" s="12">
+        <v>2</v>
+      </c>
       <c r="AW6" s="12"/>
       <c r="AX6" s="12"/>
       <c r="AY6" s="12"/>
@@ -11349,16 +11383,26 @@
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43547</v>
+      </c>
+      <c r="G7" s="10">
+        <v>43560</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
@@ -11506,7 +11550,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="10">
-        <v>43549</v>
+        <v>43561</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>68</v>
